--- a/tests/Test Results.xlsx
+++ b/tests/Test Results.xlsx
@@ -1,13 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="39">
   <si>
     <t>Metric</t>
   </si>
@@ -88,6 +90,54 @@
   </si>
   <si>
     <t>Average Segments Time (s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(69 segments, 4 elements, 3 reduced elements) </t>
+  </si>
+  <si>
+    <t>(73 segments, 11 elements, 3 reduced elements)</t>
+  </si>
+  <si>
+    <t>(139 segments, 12 elements, - reduced elements)</t>
+  </si>
+  <si>
+    <t>(78 segments, 9 elements, 4 reduced elements)</t>
+  </si>
+  <si>
+    <t>(96 segments, 4 elements, 4 reduced elements)</t>
+  </si>
+  <si>
+    <t>(129 segments, 8 elements, 3 reduced elements)</t>
+  </si>
+  <si>
+    <t>(90 segments, 8 elements, 4 reduced elements)</t>
+  </si>
+  <si>
+    <t>(130 segments, 3 elements, 1 reduced elements)</t>
+  </si>
+  <si>
+    <t>(136 segments, 9 elements, 4 reduced elements)</t>
+  </si>
+  <si>
+    <t>num of segments</t>
+  </si>
+  <si>
+    <t>seg time</t>
+  </si>
+  <si>
+    <t>pre proc time</t>
+  </si>
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>num seg and seg time</t>
+  </si>
+  <si>
+    <t>pre proc and num seg</t>
+  </si>
+  <si>
+    <t>pre proc and seg time</t>
   </si>
 </sst>
 </file>
@@ -95,9 +145,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="174" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,16 +161,58 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -143,22 +235,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF666666"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF666666"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -443,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -476,1462 +620,1462 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>64.984376907300003</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>66.459888935099997</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>64.984376907300003</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <f>AVERAGE(C2:E2)</f>
         <v>65.476214249899996</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <f>STDEVA(C2:E2)</f>
         <v>0.85188726644285695</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="22.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="2"/>
+      <c r="A3" s="4"/>
       <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>9.7960300445600001</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>10.099503517200001</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>9.7960300445600001</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <f t="shared" ref="F3:F64" si="0">AVERAGE(C3:E3)</f>
         <v>9.8971878687733348</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <f t="shared" ref="G3:G64" si="1">STDEVA(C3:E3)</f>
         <v>0.17521049112061474</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="2"/>
+      <c r="A4" s="4"/>
       <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>55.188346862800003</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>56.360385417899998</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>55.188346862800003</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <f t="shared" si="0"/>
         <v>55.57902638116667</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <f t="shared" si="1"/>
         <v>0.67667677528760217</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="22.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="2"/>
+      <c r="A5" s="4"/>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>69</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>69</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>69</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="2"/>
+      <c r="A6" s="4"/>
       <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>0.79983111395399997</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>0.81681717997000003</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>0.79983111395399997</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <f t="shared" si="0"/>
         <v>0.80549313595933325</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <f t="shared" si="1"/>
         <v>9.8069097868103867E-3</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="22.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="2"/>
+      <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>4</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>4</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>4</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="2"/>
+      <c r="A8" s="4"/>
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>3</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>3</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>3</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>61.913924932500002</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>65.193454027200005</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>61.913924932500002</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <f t="shared" si="0"/>
         <v>63.007101297400006</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <f t="shared" si="1"/>
         <v>1.8934370056402561</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="22.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="2"/>
+      <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>8.4127070903799996</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>8.5658946037299994</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>8.4127070903799996</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <f t="shared" si="0"/>
         <v>8.4637695948299996</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <f t="shared" si="1"/>
         <v>8.8442852069111774E-2</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="2"/>
+      <c r="A11" s="4"/>
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>53.501217842099997</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>56.627559423400001</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>53.501217842099997</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <f t="shared" si="0"/>
         <v>54.54333170253333</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <f t="shared" si="1"/>
         <v>1.8049941535422775</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="22.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="2"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>73</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>73</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>73</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="2"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>0.73289339509700002</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>0.77571999210200004</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>0.73289339509700002</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <f t="shared" si="0"/>
         <v>0.74716892743199992</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <f t="shared" si="1"/>
         <v>2.4725947309312383E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="22.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="2"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>11</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>11</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>11</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="2"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>3</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>3</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>3</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>98.023097991900002</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>101.13425898600001</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>98.023097991900002</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <f t="shared" si="0"/>
         <v>99.060151656599999</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="2">
         <f t="shared" si="1"/>
         <v>1.7962296374359008</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="22.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="2"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>10.123417615899999</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>11.331486701999999</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>10.123417615899999</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <f t="shared" si="0"/>
         <v>10.526107311266665</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="2">
         <f t="shared" si="1"/>
         <v>0.69747901205950025</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="2"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>87.899680376099994</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>89.802772283600007</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>87.899680376099994</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <f t="shared" si="0"/>
         <v>88.534044345266651</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="2">
         <f t="shared" si="1"/>
         <v>1.0987506250877308</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="22.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="2"/>
+      <c r="A19" s="4"/>
       <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>139</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>139</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>139</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <f t="shared" si="0"/>
         <v>139</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="2"/>
+      <c r="A20" s="4"/>
       <c r="B20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>0.63237180126699999</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>0.64606310995399996</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <v>0.63237180126699999</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <f t="shared" si="0"/>
         <v>0.63693557082933328</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="2">
         <f t="shared" si="1"/>
         <v>7.904680755997694E-3</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="22.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="2"/>
+      <c r="A21" s="4"/>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>12</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>12</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>12</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="2"/>
+      <c r="A22" s="4"/>
       <c r="B22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4" t="e">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="4" t="e">
+      <c r="G22" s="3" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>43.1616721153</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>39.251891851400003</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <v>43.1616721153</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
         <f t="shared" si="0"/>
         <v>41.858412027333337</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="2">
         <f t="shared" si="1"/>
         <v>2.2573126878349492</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="22.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="2"/>
+      <c r="A24" s="4"/>
       <c r="B24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <v>4.3235917091399996</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="2">
         <v>4.15511703491</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <v>4.3235917091399996</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="2">
         <f t="shared" si="0"/>
         <v>4.2674334843966664</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="2">
         <f t="shared" si="1"/>
         <v>9.7268898518324792E-2</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="2"/>
+      <c r="A25" s="4"/>
       <c r="B25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <v>38.8380804062</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="2">
         <v>35.096774816500002</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="2">
         <v>38.8380804062</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="2">
         <f t="shared" si="0"/>
         <v>37.590978542966667</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="2">
         <f t="shared" si="1"/>
         <v>2.1600437893339453</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="22.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="2"/>
+      <c r="A26" s="4"/>
       <c r="B26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>78</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <v>78</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="3">
         <v>78</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="3">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="2"/>
+      <c r="A27" s="4"/>
       <c r="B27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <v>0.49792410777200002</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="2">
         <v>0.44995865149399999</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <v>0.49792410777200002</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="2">
         <f t="shared" si="0"/>
         <v>0.48193562234600001</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="2">
         <f t="shared" si="1"/>
         <v>2.7692869093906541E-2</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="22.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="2"/>
+      <c r="A28" s="4"/>
       <c r="B28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>9</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <v>9</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="3">
         <v>9</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="2"/>
+      <c r="A29" s="4"/>
       <c r="B29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>4</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <v>4</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="3">
         <v>4</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="2">
         <v>83.596185207399998</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="2">
         <v>84.0215249062</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="2">
         <v>83.596185207399998</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="2">
         <f t="shared" si="0"/>
         <v>83.737965106999994</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="2">
         <f t="shared" si="1"/>
         <v>0.2455699895992155</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="22.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="2"/>
+      <c r="A31" s="4"/>
       <c r="B31" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2">
         <v>9.3552823066700004</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="2">
         <v>9.2011604309100008</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="2">
         <v>9.3552823066700004</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="2">
         <f t="shared" si="0"/>
         <v>9.3039083480833327</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="2">
         <f t="shared" si="1"/>
         <v>8.8982306458045821E-2</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="2"/>
+      <c r="A32" s="4"/>
       <c r="B32" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="2">
         <v>74.240902900699993</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="2">
         <v>74.820364475299996</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="2">
         <v>74.240902900699993</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="2">
         <f t="shared" si="0"/>
         <v>74.434056758899999</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="2">
         <f t="shared" si="1"/>
         <v>0.33455229608035636</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="22.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="2"/>
+      <c r="A33" s="4"/>
       <c r="B33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="3">
         <v>96</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="3">
         <v>96</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="3">
         <v>96</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="3">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="2"/>
+      <c r="A34" s="4"/>
       <c r="B34" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <v>0.77334273854900004</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="2">
         <v>0.77937879661700005</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="2">
         <v>0.77334273854900004</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="2">
         <f t="shared" si="0"/>
         <v>0.77535475790500008</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="2">
         <f t="shared" si="1"/>
         <v>3.4849197504040154E-3</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="22.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="2"/>
+      <c r="A35" s="4"/>
       <c r="B35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="3">
         <v>4</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="3">
         <v>4</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="3">
         <v>4</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="2"/>
+      <c r="A36" s="4"/>
       <c r="B36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="3">
         <v>4</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="3">
         <v>4</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="3">
         <v>4</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="2">
         <v>130.783526182</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="2">
         <v>136.909682035</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="2">
         <v>130.783526182</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="2">
         <f t="shared" si="0"/>
         <v>132.82557813299999</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37" s="2">
         <f t="shared" si="1"/>
         <v>3.5369377308271512</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="22.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="2"/>
+      <c r="A38" s="4"/>
       <c r="B38" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="2">
         <v>14.8862113953</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="2">
         <v>14.821752071400001</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="2">
         <v>14.8862113953</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="2">
         <f t="shared" si="0"/>
         <v>14.864724954000001</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="2">
         <f t="shared" si="1"/>
         <v>3.7215608005446009E-2</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="2"/>
+      <c r="A39" s="4"/>
       <c r="B39" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="2">
         <v>115.897314787</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="2">
         <v>122.087929964</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="2">
         <v>115.897314787</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="2">
         <f t="shared" si="0"/>
         <v>117.96085317933334</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39" s="2">
         <f t="shared" si="1"/>
         <v>3.5741533388903317</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="22.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="2"/>
+      <c r="A40" s="4"/>
       <c r="B40" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="3">
         <v>129</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="3">
         <v>129</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="3">
         <v>129</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="3">
         <f t="shared" si="0"/>
         <v>129</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="2"/>
+      <c r="A41" s="4"/>
       <c r="B41" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="2">
         <v>0.89842879679800003</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="2">
         <v>0.94641806173700005</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="2">
         <v>0.89842879679800003</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="2">
         <f t="shared" si="0"/>
         <v>0.91442521844433333</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41" s="2">
         <f t="shared" si="1"/>
         <v>2.7706615030743932E-2</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="22.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="2"/>
+      <c r="A42" s="4"/>
       <c r="B42" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="3">
         <v>8</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="3">
         <v>8</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="3">
         <v>8</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="2"/>
+      <c r="A43" s="4"/>
       <c r="B43" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="3">
         <v>3</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="3">
         <v>3</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="3">
         <v>3</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="2">
         <v>66.866570949600003</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="2">
         <v>68.125611066800005</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="2">
         <v>66.866570949600003</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="2">
         <f t="shared" si="0"/>
         <v>67.28625098866668</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" s="2">
         <f t="shared" si="1"/>
         <v>0.72690715058595878</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="22.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="2"/>
+      <c r="A45" s="4"/>
       <c r="B45" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="2">
         <v>9.3525223731999994</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="2">
         <v>9.7012598514599997</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="2">
         <v>9.3525223731999994</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="2">
         <f t="shared" si="0"/>
         <v>9.4687681992866661</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G45" s="2">
         <f t="shared" si="1"/>
         <v>0.20134367694992247</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="2"/>
+      <c r="A46" s="4"/>
       <c r="B46" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="2">
         <v>57.5140485764</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="2">
         <v>58.424351215400002</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="2">
         <v>57.5140485764</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="2">
         <f t="shared" si="0"/>
         <v>57.817482789400003</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G46" s="2">
         <f t="shared" si="1"/>
         <v>0.52556347367067735</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="22.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="2"/>
+      <c r="A47" s="4"/>
       <c r="B47" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="3">
         <v>90</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="3">
         <v>90</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="3">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47" s="3">
         <f t="shared" si="1"/>
         <v>51.96152422706632</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="2"/>
+      <c r="A48" s="4"/>
       <c r="B48" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="2">
         <v>0.63904498418199995</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="2">
         <v>0.64915945794800001</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="2">
         <v>0.63904498418199995</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="2">
         <f t="shared" si="0"/>
         <v>0.64241647543733338</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48" s="2">
         <f t="shared" si="1"/>
         <v>5.8395941515115386E-3</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="22.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="2"/>
+      <c r="A49" s="4"/>
       <c r="B49" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="3">
         <v>8</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="3">
         <v>8</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="3">
         <v>8</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G49" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="2"/>
+      <c r="A50" s="4"/>
       <c r="B50" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="3">
         <v>4</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="3">
         <v>4</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="3">
         <v>4</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G50" s="4">
+      <c r="G50" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="2">
         <v>51.828846931500003</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="2">
         <v>50.8374629021</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="2">
         <v>51.828846931500003</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="2">
         <f t="shared" si="0"/>
         <v>51.498385588366666</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G51" s="2">
         <f t="shared" si="1"/>
         <v>0.57237583624438726</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="22.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="2"/>
+      <c r="A52" s="4"/>
       <c r="B52" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="2">
         <v>4.10438799858</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="2">
         <v>3.9626133441900002</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="2">
         <v>4.10438799858</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="2">
         <f t="shared" si="0"/>
         <v>4.0571297804500004</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="2">
         <f t="shared" si="1"/>
         <v>8.1853634876332557E-2</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="2"/>
+      <c r="A53" s="4"/>
       <c r="B53" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="2">
         <v>47.724458932899999</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="2">
         <v>46.874849557899999</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="2">
         <v>47.724458932899999</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="2">
         <f t="shared" si="0"/>
         <v>47.441255807899999</v>
       </c>
-      <c r="G53" s="3">
+      <c r="G53" s="2">
         <f t="shared" si="1"/>
         <v>0.4905222013622797</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="22.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="2"/>
+      <c r="A54" s="4"/>
       <c r="B54" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="3">
         <v>130</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="3">
         <v>130</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54" s="3">
         <v>130</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F54" s="3">
         <f t="shared" si="0"/>
         <v>130</v>
       </c>
-      <c r="G54" s="4">
+      <c r="G54" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="2"/>
+      <c r="A55" s="4"/>
       <c r="B55" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="2">
         <v>0.36711122256099998</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="2">
         <v>0.36057576583000001</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="2">
         <v>0.36711122256099998</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="2">
         <f t="shared" si="0"/>
         <v>0.36493273698400003</v>
       </c>
-      <c r="G55" s="3">
+      <c r="G55" s="2">
         <f t="shared" si="1"/>
         <v>3.7732477029199887E-3</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="22.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="2"/>
+      <c r="A56" s="4"/>
       <c r="B56" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="3">
         <v>3</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56" s="3">
         <v>3</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E56" s="3">
         <v>3</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F56" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G56" s="4">
+      <c r="G56" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="2"/>
+      <c r="A57" s="4"/>
       <c r="B57" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="3">
         <v>1</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="3">
         <v>1</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E57" s="3">
         <v>1</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F57" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G57" s="4">
+      <c r="G57" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="2">
         <v>100.099311829</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="2">
         <v>94.313659191100001</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="2">
         <v>100.099311829</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="2">
         <f t="shared" si="0"/>
         <v>98.170760949700011</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="2">
         <f t="shared" si="1"/>
         <v>3.3403481079292336</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="22.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="2"/>
+      <c r="A59" s="4"/>
       <c r="B59" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="2">
         <v>8.4253957271599997</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="2">
         <v>8.3672103881800002</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="2">
         <v>8.4253957271599997</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="2">
         <f t="shared" si="0"/>
         <v>8.4060006141666666</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="2">
         <f t="shared" si="1"/>
         <v>3.3593321122992369E-2</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="2"/>
+      <c r="A60" s="4"/>
       <c r="B60" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="2">
         <v>91.673916101499998</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="2">
         <v>85.946448802899994</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60" s="2">
         <v>91.673916101499998</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F60" s="2">
         <f t="shared" si="0"/>
         <v>89.764760335299982</v>
       </c>
-      <c r="G60" s="3">
+      <c r="G60" s="2">
         <f t="shared" si="1"/>
         <v>3.3067547866214908</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="22.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="2"/>
+      <c r="A61" s="4"/>
       <c r="B61" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="3">
         <v>136</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D61" s="3">
         <v>136</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E61" s="3">
         <v>136</v>
       </c>
-      <c r="F61" s="4">
+      <c r="F61" s="3">
         <f t="shared" si="0"/>
         <v>136</v>
       </c>
-      <c r="G61" s="4">
+      <c r="G61" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="2"/>
+      <c r="A62" s="4"/>
       <c r="B62" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62" s="2">
         <v>0.67407291251099999</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="2">
         <v>0.63195918237500004</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62" s="2">
         <v>0.67407291251099999</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62" s="2">
         <f t="shared" si="0"/>
         <v>0.6600350024656666</v>
       </c>
-      <c r="G62" s="3">
+      <c r="G62" s="2">
         <f t="shared" si="1"/>
         <v>2.4314373430598828E-2</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="22.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="2"/>
+      <c r="A63" s="4"/>
       <c r="B63" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="3">
         <v>9</v>
       </c>
-      <c r="D63" s="4">
+      <c r="D63" s="3">
         <v>9</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E63" s="3">
         <v>9</v>
       </c>
-      <c r="F63" s="4">
+      <c r="F63" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="G63" s="4">
+      <c r="G63" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="2"/>
+      <c r="A64" s="4"/>
       <c r="B64" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="3">
         <v>4</v>
       </c>
-      <c r="D64" s="4">
+      <c r="D64" s="3">
         <v>4</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E64" s="3">
         <v>4</v>
       </c>
-      <c r="F64" s="4">
+      <c r="F64" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G64" s="4">
+      <c r="G64" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1951,4 +2095,680 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D37"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="23.1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="5"/>
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="23.1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="7">
+        <v>65.476200000000006</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0.85189999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="55.8" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="8">
+        <v>9.8971999999999998</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.17519999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="7">
+        <v>55.579000000000001</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.67669999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="6"/>
+      <c r="B5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.80549999999999999</v>
+      </c>
+      <c r="D5" s="8">
+        <v>9.7999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="23.1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="7">
+        <v>63.007100000000001</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1.8934</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="66.900000000000006" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="8">
+        <v>8.4638000000000009</v>
+      </c>
+      <c r="D7" s="8">
+        <v>8.8400000000000006E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="7">
+        <v>54.543300000000002</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1.8049999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A9" s="6"/>
+      <c r="B9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.74719999999999998</v>
+      </c>
+      <c r="D9" s="8">
+        <v>2.47E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="23.1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="7">
+        <v>99.060199999999995</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1.7962</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="66.900000000000006" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="8">
+        <v>10.5261</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.69750000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="7">
+        <v>88.534000000000006</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1.0988</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A13" s="6"/>
+      <c r="B13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.63690000000000002</v>
+      </c>
+      <c r="D13" s="8">
+        <v>7.9000000000000008E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="23.1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="7">
+        <v>41.858400000000003</v>
+      </c>
+      <c r="D14" s="7">
+        <v>2.2572999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="55.8" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="8">
+        <v>4.2674000000000003</v>
+      </c>
+      <c r="D15" s="8">
+        <v>9.7299999999999998E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="7">
+        <v>37.591000000000001</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A17" s="6"/>
+      <c r="B17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0.4819</v>
+      </c>
+      <c r="D17" s="8">
+        <v>2.7699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="23.1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="7">
+        <v>83.738</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0.24560000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="55.8" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="8">
+        <v>9.3039000000000005</v>
+      </c>
+      <c r="D19" s="8">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="7">
+        <v>74.434100000000001</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0.33460000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A21" s="6"/>
+      <c r="B21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="8">
+        <v>0.77539999999999998</v>
+      </c>
+      <c r="D21" s="8">
+        <v>3.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="23.1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="7">
+        <v>132.82560000000001</v>
+      </c>
+      <c r="D22" s="7">
+        <v>3.5369000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="55.8" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A23" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="8">
+        <v>14.864699999999999</v>
+      </c>
+      <c r="D23" s="8">
+        <v>3.7199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="7">
+        <v>117.9609</v>
+      </c>
+      <c r="D24" s="7">
+        <v>3.5741999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A25" s="6"/>
+      <c r="B25" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="8">
+        <v>0.91439999999999999</v>
+      </c>
+      <c r="D25" s="8">
+        <v>2.7699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="23.1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="7">
+        <v>67.286299999999997</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0.72689999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="55.8" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="8">
+        <v>9.4687999999999999</v>
+      </c>
+      <c r="D27" s="8">
+        <v>0.20130000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="7">
+        <v>57.817500000000003</v>
+      </c>
+      <c r="D28" s="7">
+        <v>0.52559999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A29" s="6"/>
+      <c r="B29" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="8">
+        <v>0.64239999999999997</v>
+      </c>
+      <c r="D29" s="8">
+        <v>5.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="23.1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="7">
+        <v>51.498399999999997</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0.57240000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="55.8" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A31" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="8">
+        <v>4.0571000000000002</v>
+      </c>
+      <c r="D31" s="8">
+        <v>8.1900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A32" s="6"/>
+      <c r="B32" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="7">
+        <v>47.441299999999998</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0.49049999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A33" s="6"/>
+      <c r="B33" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="8">
+        <v>0.3649</v>
+      </c>
+      <c r="D33" s="8">
+        <v>3.8E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="23.1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A34" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="7">
+        <v>98.1708</v>
+      </c>
+      <c r="D34" s="7">
+        <v>3.3403</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="55.8" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A35" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="8">
+        <v>8.4060000000000006</v>
+      </c>
+      <c r="D35" s="8">
+        <v>3.3599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A36" s="6"/>
+      <c r="B36" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="7">
+        <v>89.764799999999994</v>
+      </c>
+      <c r="D36" s="7">
+        <v>3.3068</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A37" s="10"/>
+      <c r="B37" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="8">
+        <v>0.66</v>
+      </c>
+      <c r="D37" s="8">
+        <v>2.4299999999999999E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="14.26171875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.3125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7890625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12">
+        <v>69</v>
+      </c>
+      <c r="C2" s="13">
+        <v>55.579000000000001</v>
+      </c>
+      <c r="D2" s="13">
+        <v>9.8971999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12">
+        <v>73</v>
+      </c>
+      <c r="C3" s="13">
+        <v>54.543300000000002</v>
+      </c>
+      <c r="D3" s="13">
+        <v>8.4638000000000009</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12">
+        <v>139</v>
+      </c>
+      <c r="C4" s="13">
+        <v>88.534000000000006</v>
+      </c>
+      <c r="D4" s="13">
+        <v>10.5261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="12">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12">
+        <v>78</v>
+      </c>
+      <c r="C5" s="13">
+        <v>37.591000000000001</v>
+      </c>
+      <c r="D5" s="13">
+        <v>4.2674000000000003</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5">
+        <f>CORREL(B2:B10, C2:C10)</f>
+        <v>0.65482806148086103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="12">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12">
+        <v>96</v>
+      </c>
+      <c r="C6" s="13">
+        <v>74.434100000000001</v>
+      </c>
+      <c r="D6" s="13">
+        <v>9.3039000000000005</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6">
+        <f>CORREL(B2:B10, D2:D10)</f>
+        <v>0.20263822786116975</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="12">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12">
+        <v>129</v>
+      </c>
+      <c r="C7" s="13">
+        <v>117.9609</v>
+      </c>
+      <c r="D7" s="13">
+        <v>14.864699999999999</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7">
+        <f>CORREL(D2:D10, C2:C10)</f>
+        <v>0.83078622317204043</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="12">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12">
+        <v>90</v>
+      </c>
+      <c r="C8" s="13">
+        <v>57.817500000000003</v>
+      </c>
+      <c r="D8" s="13">
+        <v>9.4687999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="12">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12">
+        <v>130</v>
+      </c>
+      <c r="C9" s="13">
+        <v>47.441299999999998</v>
+      </c>
+      <c r="D9" s="13">
+        <v>4.0571000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="12">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12">
+        <v>136</v>
+      </c>
+      <c r="C10" s="13">
+        <v>89.764799999999994</v>
+      </c>
+      <c r="D10" s="13">
+        <v>8.4060000000000006</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>